--- a/git.xlsx
+++ b/git.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmiao\MyGit\MyDocument\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406BE4C4-7F2E-48CE-8E57-CC50906D6225}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="git操作" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$T$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$T$49</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <r>
       <t xml:space="preserve">$ </t>
@@ -1608,6 +1614,466 @@
       </rPr>
       <t xml:space="preserve">
 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建一个新的仓库</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把本地的文件夹关联到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在本地命令栏输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>git clone url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功后如下图所示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果想要把本地的代码放到仓库里，可以把本地代码拷贝到已关联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的文件夹下面</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>.git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件夹和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>node_modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不需要拷贝进去</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把代码拷贝到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>supermall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件夹里面</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>红色的字体代表是新建的文件，可以用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>git status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令来查看</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行命令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">git add . </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把所有新建的文件加入到存储区</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">然后提交到本地的缓存上。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Git commit  -m 'xxxx'</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最后使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>git push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令提交到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跟</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关联操作，方式一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以本地的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目录为主，直接把代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到远程仓库</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上需要先建一个远程仓库才行，黑色的那一部分就是把代码关联到远程仓库的地址</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1615,8 +2081,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1770,6 +2236,43 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1806,7 +2309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1821,17 +2324,605 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>35673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CBAA4F-61C1-46DC-9F9A-BBF77DF8DA68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="358141"/>
+          <a:ext cx="4518659" cy="4592432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>307398</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>5397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C91642-84E5-455D-B76A-25EFB9025F65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5715000"/>
+          <a:ext cx="9695238" cy="2542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>341600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>157864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05714863-503A-46CA-8977-6CA0E69157F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8679180"/>
+          <a:ext cx="10400000" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6949</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>83315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68A523A-442D-4859-9CDD-4D8161E354B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11140440"/>
+          <a:ext cx="5371429" cy="4038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>48604</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7871224-D829-4683-990C-53390BEBE93F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16116300"/>
+          <a:ext cx="4742524" cy="4343400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>426001</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>41450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F9D2F16-9B81-4D2B-9960-4FC34B762337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6073140" y="16390620"/>
+          <a:ext cx="5752381" cy="3676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56724</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>26191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF34B243-44EA-42A1-8F4B-09CFBCE2DBA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21488400"/>
+          <a:ext cx="3409524" cy="3828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>243373</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>79946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F37E20-EEF8-4736-A681-0F6CA67CD0DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="21709380"/>
+          <a:ext cx="3733333" cy="514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>595326</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>148288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBCB4607-10F0-4CF3-A525-6658D45F0684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="22326600"/>
+          <a:ext cx="7514286" cy="2419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>49361</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>49470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E65D51-9D5C-47A0-AE08-636E621BBA60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="25930860"/>
+          <a:ext cx="1352381" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>379307</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EA79E8-9F16-4B92-827F-95D63EFE6FD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="26532840"/>
+          <a:ext cx="5073226" cy="1645920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>569272</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>129502</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{559A8175-EE56-493D-A2F5-4BB25DFA040C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28818840"/>
+          <a:ext cx="2580952" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>506080</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>131368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028AF754-E902-442F-A06B-97C73603287D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="30990540"/>
+          <a:ext cx="5200000" cy="619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1873,7 +2964,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1905,9 +2996,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1939,6 +3048,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2114,45 +3241,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J176"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.4">
+      <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.4">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="14.4">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="14.4">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="14.4">
+      <c r="A64" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="14.4">
+      <c r="A91" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="14.4">
+      <c r="A92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="14.4">
+      <c r="J94" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="14.4">
+      <c r="A122" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="14.4">
+      <c r="A148" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="14.4">
+      <c r="A164" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="14.4">
+      <c r="A170" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="14.4">
+      <c r="A173" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="14.4">
+      <c r="A174" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="14.4">
+      <c r="A176" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="79.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="79.8984375" style="4" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:1" ht="16.2" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:1" ht="16.2" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:1" ht="16.2" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:1" ht="16.2" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16.5" thickBot="1">
+    <row r="5" spans="1:1" ht="16.8" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1">
+    <row r="6" spans="1:1" ht="16.2" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2162,52 +3382,52 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="60.75" thickBot="1">
+    <row r="8" spans="1:1" ht="61.8" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30.75" thickBot="1">
+    <row r="9" spans="1:1" ht="31.8" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1">
+    <row r="10" spans="1:1" ht="16.2" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1">
+    <row r="11" spans="1:1" ht="16.2" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="30.75" thickBot="1">
+    <row r="12" spans="1:1" ht="31.8" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="16.5" thickBot="1">
+    <row r="13" spans="1:1" ht="16.8" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="30.75" thickBot="1">
+    <row r="14" spans="1:1" ht="31.8" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="75" thickBot="1">
+    <row r="15" spans="1:1" ht="78.599999999999994" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:1" ht="15.6" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="69" thickBot="1">
+    <row r="17" spans="1:1" ht="70.8" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2217,32 +3437,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="28.5" thickBot="1">
+    <row r="20" spans="1:1" ht="29.4" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30">
+    <row r="21" spans="1:1" ht="31.2">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" ht="15.6">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="45">
+    <row r="23" spans="1:1" ht="46.8">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="74.25">
+    <row r="24" spans="1:1" ht="77.400000000000006">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="60">
+    <row r="25" spans="1:1" ht="61.8">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -2254,26 +3474,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
